--- a/assets/data/items_analysis.xlsx
+++ b/assets/data/items_analysis.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{682D5A86-436C-42B5-8D07-2E7037D132C3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -13413,7 +13414,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{727EE179-4DED-409A-AEBC-F3E31558404F}" name="PivotTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{727EE179-4DED-409A-AEBC-F3E31558404F}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B521" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -15475,17 +15476,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H470"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="17.453125" style="3" customWidth="1"/>
+    <col min="1" max="6" width="17.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -15511,7 +15514,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -15535,7 +15538,7 @@
         <v>76.986458333333303</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -15561,7 +15564,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -15587,7 +15590,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -15613,7 +15616,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -15639,7 +15642,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -15665,7 +15668,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -15691,7 +15694,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -15717,7 +15720,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -15743,7 +15746,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
@@ -15769,7 +15772,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
@@ -15795,7 +15798,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -15821,7 +15824,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -15847,7 +15850,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -15873,7 +15876,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -15899,7 +15902,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
@@ -15925,7 +15928,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
@@ -15951,7 +15954,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -15977,7 +15980,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -16003,7 +16006,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -16029,7 +16032,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -16055,7 +16058,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -16081,7 +16084,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>81</v>
       </c>
@@ -16105,7 +16108,7 @@
         <v>54.962500000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>81</v>
       </c>
@@ -16129,7 +16132,7 @@
         <v>54.962500000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
@@ -16155,7 +16158,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -16181,7 +16184,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -16207,7 +16210,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -16233,7 +16236,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -16259,7 +16262,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
@@ -16285,7 +16288,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
@@ -16311,7 +16314,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
@@ -16337,7 +16340,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>83</v>
       </c>
@@ -16363,7 +16366,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
@@ -16389,7 +16392,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>83</v>
       </c>
@@ -16415,7 +16418,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>83</v>
       </c>
@@ -16441,7 +16444,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>83</v>
       </c>
@@ -16467,7 +16470,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>83</v>
       </c>
@@ -16493,7 +16496,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
@@ -16519,7 +16522,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>83</v>
       </c>
@@ -16545,7 +16548,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -16571,7 +16574,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
@@ -16597,7 +16600,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>33</v>
       </c>
@@ -16623,7 +16626,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>90</v>
       </c>
@@ -16649,7 +16652,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -16675,7 +16678,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
@@ -16701,7 +16704,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -16727,7 +16730,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -16753,7 +16756,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
@@ -16779,7 +16782,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -16805,7 +16808,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>100</v>
       </c>
@@ -16831,7 +16834,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>11</v>
       </c>
@@ -16857,7 +16860,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>63</v>
       </c>
@@ -16883,7 +16886,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
@@ -16909,7 +16912,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
@@ -16935,7 +16938,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>63</v>
       </c>
@@ -16961,7 +16964,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
@@ -16987,7 +16990,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
@@ -17013,7 +17016,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>63</v>
       </c>
@@ -17039,7 +17042,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>3</v>
       </c>
@@ -17065,7 +17068,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
@@ -17091,7 +17094,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
@@ -17117,7 +17120,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
@@ -17143,7 +17146,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>12</v>
       </c>
@@ -17169,7 +17172,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>12</v>
       </c>
@@ -17195,7 +17198,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>12</v>
       </c>
@@ -17221,7 +17224,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>12</v>
       </c>
@@ -17247,7 +17250,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>12</v>
       </c>
@@ -17273,7 +17276,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>12</v>
       </c>
@@ -17299,7 +17302,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>12</v>
       </c>
@@ -17325,7 +17328,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>12</v>
       </c>
@@ -17351,7 +17354,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>57</v>
       </c>
@@ -17377,7 +17380,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>57</v>
       </c>
@@ -17403,7 +17406,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>57</v>
       </c>
@@ -17429,7 +17432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>14</v>
       </c>
@@ -17455,7 +17458,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>14</v>
       </c>
@@ -17481,7 +17484,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>14</v>
       </c>
@@ -17507,7 +17510,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>58</v>
       </c>
@@ -17533,7 +17536,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>58</v>
       </c>
@@ -17559,7 +17562,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>15</v>
       </c>
@@ -17583,7 +17586,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>15</v>
       </c>
@@ -17607,7 +17610,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>15</v>
       </c>
@@ -17631,7 +17634,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>15</v>
       </c>
@@ -17655,7 +17658,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>15</v>
       </c>
@@ -17679,7 +17682,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>16</v>
       </c>
@@ -17705,7 +17708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>16</v>
       </c>
@@ -17731,7 +17734,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>16</v>
       </c>
@@ -17757,7 +17760,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>41</v>
       </c>
@@ -17783,7 +17786,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>41</v>
       </c>
@@ -17809,7 +17812,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>41</v>
       </c>
@@ -17835,7 +17838,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>41</v>
       </c>
@@ -17861,7 +17864,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -17887,7 +17890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>96</v>
       </c>
@@ -17913,7 +17916,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
@@ -17939,7 +17942,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
@@ -17965,7 +17968,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>70</v>
       </c>
@@ -17991,7 +17994,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>70</v>
       </c>
@@ -18017,7 +18020,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>70</v>
       </c>
@@ -18043,7 +18046,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>70</v>
       </c>
@@ -18069,7 +18072,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>97</v>
       </c>
@@ -18093,7 +18096,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>97</v>
       </c>
@@ -18117,7 +18120,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>54</v>
       </c>
@@ -18143,7 +18146,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>54</v>
       </c>
@@ -18169,7 +18172,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>37</v>
       </c>
@@ -18195,7 +18198,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>37</v>
       </c>
@@ -18221,7 +18224,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>37</v>
       </c>
@@ -18247,7 +18250,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>37</v>
       </c>
@@ -18273,7 +18276,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>4</v>
       </c>
@@ -18299,7 +18302,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>4</v>
       </c>
@@ -18325,7 +18328,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>4</v>
       </c>
@@ -18351,7 +18354,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>103</v>
       </c>
@@ -18377,7 +18380,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>50</v>
       </c>
@@ -18403,7 +18406,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>88</v>
       </c>
@@ -18429,7 +18432,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>38</v>
       </c>
@@ -18455,7 +18458,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="116" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>38</v>
       </c>
@@ -18481,7 +18484,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>38</v>
       </c>
@@ -18507,7 +18510,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>38</v>
       </c>
@@ -18533,7 +18536,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>38</v>
       </c>
@@ -18559,7 +18562,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>38</v>
       </c>
@@ -18585,7 +18588,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>38</v>
       </c>
@@ -18611,7 +18614,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>38</v>
       </c>
@@ -18637,7 +18640,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>38</v>
       </c>
@@ -18663,7 +18666,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>38</v>
       </c>
@@ -18689,7 +18692,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>38</v>
       </c>
@@ -18715,7 +18718,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>75</v>
       </c>
@@ -18739,7 +18742,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>60</v>
       </c>
@@ -18763,7 +18766,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="128" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>55</v>
       </c>
@@ -18789,7 +18792,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>55</v>
       </c>
@@ -18815,7 +18818,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>55</v>
       </c>
@@ -18841,7 +18844,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>24</v>
       </c>
@@ -18865,7 +18868,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>24</v>
       </c>
@@ -18889,7 +18892,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>24</v>
       </c>
@@ -18913,7 +18916,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>48</v>
       </c>
@@ -18939,7 +18942,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="135" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>48</v>
       </c>
@@ -18965,7 +18968,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="136" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>48</v>
       </c>
@@ -18991,7 +18994,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>48</v>
       </c>
@@ -19017,7 +19020,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="138" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>48</v>
       </c>
@@ -19043,7 +19046,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="139" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>48</v>
       </c>
@@ -19069,7 +19072,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="140" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>10</v>
       </c>
@@ -19095,7 +19098,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="141" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>10</v>
       </c>
@@ -19121,7 +19124,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>10</v>
       </c>
@@ -19147,7 +19150,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="143" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>10</v>
       </c>
@@ -19173,7 +19176,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>10</v>
       </c>
@@ -19199,7 +19202,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>10</v>
       </c>
@@ -19225,7 +19228,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>10</v>
       </c>
@@ -19251,7 +19254,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>10</v>
       </c>
@@ -19277,7 +19280,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>10</v>
       </c>
@@ -19303,7 +19306,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>10</v>
       </c>
@@ -19329,7 +19332,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>10</v>
       </c>
@@ -19355,7 +19358,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>10</v>
       </c>
@@ -19381,7 +19384,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>10</v>
       </c>
@@ -19407,7 +19410,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="153" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>71</v>
       </c>
@@ -19433,7 +19436,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="154" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>71</v>
       </c>
@@ -19459,7 +19462,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="155" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>71</v>
       </c>
@@ -19485,7 +19488,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="156" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>71</v>
       </c>
@@ -19511,7 +19514,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="157" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>76</v>
       </c>
@@ -19535,7 +19538,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="158" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>19</v>
       </c>
@@ -19561,7 +19564,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="159" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>19</v>
       </c>
@@ -19587,7 +19590,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="160" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>19</v>
       </c>
@@ -19613,7 +19616,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="161" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>19</v>
       </c>
@@ -19639,7 +19642,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="162" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>19</v>
       </c>
@@ -19665,7 +19668,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="163" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>56</v>
       </c>
@@ -19689,7 +19692,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="164" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>56</v>
       </c>
@@ -19713,7 +19716,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="165" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>56</v>
       </c>
@@ -19737,7 +19740,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="166" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>30</v>
       </c>
@@ -19763,7 +19766,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="167" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>30</v>
       </c>
@@ -19789,7 +19792,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="168" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>64</v>
       </c>
@@ -19815,7 +19818,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="169" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>64</v>
       </c>
@@ -19841,7 +19844,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="170" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>61</v>
       </c>
@@ -19867,7 +19870,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="171" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>61</v>
       </c>
@@ -19893,7 +19896,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>51</v>
       </c>
@@ -19919,7 +19922,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>51</v>
       </c>
@@ -19945,7 +19948,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="174" spans="1:8" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>51</v>
       </c>
@@ -19971,7 +19974,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>102</v>
       </c>
@@ -19995,7 +19998,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>102</v>
       </c>
@@ -20019,7 +20022,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>34</v>
       </c>
@@ -20045,7 +20048,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>34</v>
       </c>
@@ -20071,7 +20074,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>34</v>
       </c>
@@ -20097,7 +20100,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>34</v>
       </c>
@@ -20123,7 +20126,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>34</v>
       </c>
@@ -20149,7 +20152,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>34</v>
       </c>
@@ -20175,7 +20178,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>34</v>
       </c>
@@ -20201,7 +20204,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>34</v>
       </c>
@@ -20227,7 +20230,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>34</v>
       </c>
@@ -20253,7 +20256,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>34</v>
       </c>
@@ -20279,7 +20282,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>72</v>
       </c>
@@ -20305,7 +20308,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>72</v>
       </c>
@@ -20331,7 +20334,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>72</v>
       </c>
@@ -20357,7 +20360,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>72</v>
       </c>
@@ -20383,7 +20386,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>72</v>
       </c>
@@ -20409,7 +20412,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>28</v>
       </c>
@@ -20435,7 +20438,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>28</v>
       </c>
@@ -20461,7 +20464,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>28</v>
       </c>
@@ -20487,7 +20490,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>28</v>
       </c>
@@ -20513,7 +20516,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>28</v>
       </c>
@@ -20539,7 +20542,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>28</v>
       </c>
@@ -20565,7 +20568,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>28</v>
       </c>
@@ -20591,7 +20594,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>28</v>
       </c>
@@ -20617,7 +20620,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>28</v>
       </c>
@@ -20643,7 +20646,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>28</v>
       </c>
@@ -20669,7 +20672,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>28</v>
       </c>
@@ -20695,7 +20698,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>28</v>
       </c>
@@ -20721,7 +20724,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>28</v>
       </c>
@@ -20747,7 +20750,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>28</v>
       </c>
@@ -20773,7 +20776,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>28</v>
       </c>
@@ -20799,7 +20802,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>28</v>
       </c>
@@ -20825,7 +20828,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>28</v>
       </c>
@@ -20851,7 +20854,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>28</v>
       </c>
@@ -20877,7 +20880,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>28</v>
       </c>
@@ -20903,7 +20906,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>69</v>
       </c>
@@ -20927,7 +20930,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>69</v>
       </c>
@@ -20951,7 +20954,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>21</v>
       </c>
@@ -20977,7 +20980,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>21</v>
       </c>
@@ -21003,7 +21006,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>21</v>
       </c>
@@ -21029,7 +21032,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>21</v>
       </c>
@@ -21055,7 +21058,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>21</v>
       </c>
@@ -21081,7 +21084,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>84</v>
       </c>
@@ -21107,7 +21110,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>84</v>
       </c>
@@ -21133,7 +21136,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>84</v>
       </c>
@@ -21159,7 +21162,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>84</v>
       </c>
@@ -21185,7 +21188,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>6</v>
       </c>
@@ -21211,7 +21214,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>6</v>
       </c>
@@ -21237,7 +21240,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>6</v>
       </c>
@@ -21263,7 +21266,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>6</v>
       </c>
@@ -21289,7 +21292,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>6</v>
       </c>
@@ -21315,7 +21318,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>6</v>
       </c>
@@ -21341,7 +21344,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>6</v>
       </c>
@@ -21367,7 +21370,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>6</v>
       </c>
@@ -21393,7 +21396,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>6</v>
       </c>
@@ -21419,7 +21422,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>20</v>
       </c>
@@ -21445,7 +21448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>20</v>
       </c>
@@ -21471,7 +21474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>20</v>
       </c>
@@ -21497,7 +21500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>77</v>
       </c>
@@ -21523,7 +21526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>39</v>
       </c>
@@ -21549,7 +21552,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>39</v>
       </c>
@@ -21575,7 +21578,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>39</v>
       </c>
@@ -21601,7 +21604,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>39</v>
       </c>
@@ -21627,7 +21630,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>39</v>
       </c>
@@ -21653,7 +21656,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>39</v>
       </c>
@@ -21679,7 +21682,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>39</v>
       </c>
@@ -21705,7 +21708,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>39</v>
       </c>
@@ -21731,7 +21734,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>39</v>
       </c>
@@ -21757,7 +21760,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>39</v>
       </c>
@@ -21783,7 +21786,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>39</v>
       </c>
@@ -21809,7 +21812,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>39</v>
       </c>
@@ -21835,7 +21838,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>39</v>
       </c>
@@ -21861,7 +21864,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>39</v>
       </c>
@@ -21887,7 +21890,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>39</v>
       </c>
@@ -21913,7 +21916,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>39</v>
       </c>
@@ -21939,7 +21942,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>39</v>
       </c>
@@ -21965,7 +21968,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>39</v>
       </c>
@@ -21991,7 +21994,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>39</v>
       </c>
@@ -22017,7 +22020,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>17</v>
       </c>
@@ -22043,7 +22046,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>17</v>
       </c>
@@ -22069,7 +22072,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>17</v>
       </c>
@@ -22095,7 +22098,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>17</v>
       </c>
@@ -22121,7 +22124,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>17</v>
       </c>
@@ -22147,7 +22150,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>17</v>
       </c>
@@ -22173,7 +22176,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>17</v>
       </c>
@@ -22199,7 +22202,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>17</v>
       </c>
@@ -22225,7 +22228,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>35</v>
       </c>
@@ -22251,7 +22254,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>35</v>
       </c>
@@ -22277,7 +22280,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>35</v>
       </c>
@@ -22303,7 +22306,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>35</v>
       </c>
@@ -22329,7 +22332,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>40</v>
       </c>
@@ -22355,7 +22358,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>40</v>
       </c>
@@ -22381,7 +22384,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>40</v>
       </c>
@@ -22407,7 +22410,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>40</v>
       </c>
@@ -22433,7 +22436,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>40</v>
       </c>
@@ -22459,7 +22462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>40</v>
       </c>
@@ -22485,7 +22488,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>40</v>
       </c>
@@ -22511,7 +22514,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>40</v>
       </c>
@@ -22537,7 +22540,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>40</v>
       </c>
@@ -22563,7 +22566,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>40</v>
       </c>
@@ -22589,7 +22592,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>40</v>
       </c>
@@ -22615,7 +22618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>40</v>
       </c>
@@ -22641,7 +22644,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>40</v>
       </c>
@@ -22667,7 +22670,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>40</v>
       </c>
@@ -22693,7 +22696,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>40</v>
       </c>
@@ -22719,7 +22722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>40</v>
       </c>
@@ -22745,7 +22748,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>40</v>
       </c>
@@ -22771,7 +22774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>40</v>
       </c>
@@ -22797,7 +22800,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>18</v>
       </c>
@@ -22823,7 +22826,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>18</v>
       </c>
@@ -22849,7 +22852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>18</v>
       </c>
@@ -22875,7 +22878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>18</v>
       </c>
@@ -22901,7 +22904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>18</v>
       </c>
@@ -22927,7 +22930,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>18</v>
       </c>
@@ -22953,7 +22956,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>18</v>
       </c>
@@ -22979,7 +22982,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>18</v>
       </c>
@@ -23005,7 +23008,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>104</v>
       </c>
@@ -23031,7 +23034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>9</v>
       </c>
@@ -23057,7 +23060,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>9</v>
       </c>
@@ -23083,7 +23086,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>9</v>
       </c>
@@ -23109,7 +23112,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>9</v>
       </c>
@@ -23135,7 +23138,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>9</v>
       </c>
@@ -23161,7 +23164,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>9</v>
       </c>
@@ -23187,7 +23190,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>9</v>
       </c>
@@ -23213,7 +23216,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>9</v>
       </c>
@@ -23239,7 +23242,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>9</v>
       </c>
@@ -23265,7 +23268,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>9</v>
       </c>
@@ -23291,7 +23294,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>9</v>
       </c>
@@ -23317,7 +23320,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>9</v>
       </c>
@@ -23343,7 +23346,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>68</v>
       </c>
@@ -23369,7 +23372,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>67</v>
       </c>
@@ -23395,7 +23398,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>67</v>
       </c>
@@ -23421,7 +23424,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>45</v>
       </c>
@@ -23445,7 +23448,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>27</v>
       </c>
@@ -23471,7 +23474,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>27</v>
       </c>
@@ -23497,7 +23500,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>27</v>
       </c>
@@ -23523,7 +23526,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>27</v>
       </c>
@@ -23549,7 +23552,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>27</v>
       </c>
@@ -23575,7 +23578,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>27</v>
       </c>
@@ -23601,7 +23604,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>27</v>
       </c>
@@ -23627,7 +23630,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>27</v>
       </c>
@@ -23653,7 +23656,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>27</v>
       </c>
@@ -23679,7 +23682,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>27</v>
       </c>
@@ -23705,7 +23708,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>27</v>
       </c>
@@ -23731,7 +23734,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>27</v>
       </c>
@@ -23757,7 +23760,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>27</v>
       </c>
@@ -23783,7 +23786,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>27</v>
       </c>
@@ -23809,7 +23812,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>73</v>
       </c>
@@ -23835,7 +23838,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>73</v>
       </c>
@@ -23861,7 +23864,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>73</v>
       </c>
@@ -23887,7 +23890,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>73</v>
       </c>
@@ -23913,7 +23916,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>73</v>
       </c>
@@ -23939,7 +23942,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>1</v>
       </c>
@@ -23965,7 +23968,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>1</v>
       </c>
@@ -23991,7 +23994,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>1</v>
       </c>
@@ -24017,7 +24020,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>1</v>
       </c>
@@ -24043,7 +24046,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>1</v>
       </c>
@@ -24069,7 +24072,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>82</v>
       </c>
@@ -24095,7 +24098,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>82</v>
       </c>
@@ -24121,7 +24124,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>82</v>
       </c>
@@ -24147,7 +24150,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>29</v>
       </c>
@@ -24173,7 +24176,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>29</v>
       </c>
@@ -24199,7 +24202,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>29</v>
       </c>
@@ -24225,7 +24228,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>29</v>
       </c>
@@ -24251,7 +24254,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>29</v>
       </c>
@@ -24277,7 +24280,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>29</v>
       </c>
@@ -24303,7 +24306,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>29</v>
       </c>
@@ -24329,7 +24332,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>29</v>
       </c>
@@ -24355,7 +24358,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>29</v>
       </c>
@@ -24381,7 +24384,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>29</v>
       </c>
@@ -24407,7 +24410,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>29</v>
       </c>
@@ -24433,7 +24436,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>5</v>
       </c>
@@ -24459,7 +24462,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>5</v>
       </c>
@@ -24485,7 +24488,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>5</v>
       </c>
@@ -24511,7 +24514,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>5</v>
       </c>
@@ -24537,7 +24540,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>5</v>
       </c>
@@ -24563,7 +24566,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>5</v>
       </c>
@@ -24589,7 +24592,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>5</v>
       </c>
@@ -24615,7 +24618,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>5</v>
       </c>
@@ -24641,7 +24644,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>23</v>
       </c>
@@ -24667,7 +24670,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>74</v>
       </c>
@@ -24693,7 +24696,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>74</v>
       </c>
@@ -24719,7 +24722,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>74</v>
       </c>
@@ -24745,7 +24748,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>98</v>
       </c>
@@ -24771,7 +24774,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>98</v>
       </c>
@@ -24797,7 +24800,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>2</v>
       </c>
@@ -24823,7 +24826,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>2</v>
       </c>
@@ -24849,7 +24852,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>2</v>
       </c>
@@ -24875,7 +24878,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>2</v>
       </c>
@@ -24901,7 +24904,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>2</v>
       </c>
@@ -24927,7 +24930,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>2</v>
       </c>
@@ -24953,7 +24956,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>2</v>
       </c>
@@ -24979,7 +24982,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>2</v>
       </c>
@@ -25005,7 +25008,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>2</v>
       </c>
@@ -25031,7 +25034,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>2</v>
       </c>
@@ -25057,7 +25060,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>80</v>
       </c>
@@ -25083,7 +25086,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>80</v>
       </c>
@@ -25109,7 +25112,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>80</v>
       </c>
@@ -25135,7 +25138,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>80</v>
       </c>
@@ -25161,7 +25164,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>78</v>
       </c>
@@ -25187,7 +25190,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>78</v>
       </c>
@@ -25213,7 +25216,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>78</v>
       </c>
@@ -25239,7 +25242,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>36</v>
       </c>
@@ -25265,7 +25268,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>36</v>
       </c>
@@ -25291,7 +25294,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>36</v>
       </c>
@@ -25317,7 +25320,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>36</v>
       </c>
@@ -25343,7 +25346,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>36</v>
       </c>
@@ -25369,7 +25372,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>36</v>
       </c>
@@ -25395,7 +25398,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>36</v>
       </c>
@@ -25421,7 +25424,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>36</v>
       </c>
@@ -25447,7 +25450,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>36</v>
       </c>
@@ -25473,7 +25476,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>36</v>
       </c>
@@ -25499,7 +25502,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>36</v>
       </c>
@@ -25525,7 +25528,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>62</v>
       </c>
@@ -25549,7 +25552,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>7</v>
       </c>
@@ -25575,7 +25578,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>7</v>
       </c>
@@ -25601,7 +25604,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>46</v>
       </c>
@@ -25627,7 +25630,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>31</v>
       </c>
@@ -25653,7 +25656,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>31</v>
       </c>
@@ -25679,7 +25682,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>13</v>
       </c>
@@ -25705,7 +25708,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>13</v>
       </c>
@@ -25731,7 +25734,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>13</v>
       </c>
@@ -25757,7 +25760,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>13</v>
       </c>
@@ -25783,7 +25786,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>13</v>
       </c>
@@ -25809,7 +25812,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>25</v>
       </c>
@@ -25835,7 +25838,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>25</v>
       </c>
@@ -25861,7 +25864,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>25</v>
       </c>
@@ -25887,7 +25890,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>52</v>
       </c>
@@ -25913,7 +25916,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>52</v>
       </c>
@@ -25939,7 +25942,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>52</v>
       </c>
@@ -25965,7 +25968,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>52</v>
       </c>
@@ -25991,7 +25994,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>52</v>
       </c>
@@ -26017,7 +26020,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>52</v>
       </c>
@@ -26043,7 +26046,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>52</v>
       </c>
@@ -26069,7 +26072,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>52</v>
       </c>
@@ -26095,7 +26098,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>52</v>
       </c>
@@ -26121,7 +26124,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>49</v>
       </c>
@@ -26147,7 +26150,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>49</v>
       </c>
@@ -26173,7 +26176,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>49</v>
       </c>
@@ -26199,7 +26202,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="415" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>49</v>
       </c>
@@ -26225,7 +26228,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>49</v>
       </c>
@@ -26251,7 +26254,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="417" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>49</v>
       </c>
@@ -26277,7 +26280,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>49</v>
       </c>
@@ -26303,7 +26306,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="419" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>49</v>
       </c>
@@ -26329,7 +26332,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>53</v>
       </c>
@@ -26355,7 +26358,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>53</v>
       </c>
@@ -26381,7 +26384,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>53</v>
       </c>
@@ -26407,7 +26410,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>53</v>
       </c>
@@ -26433,7 +26436,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="424" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>53</v>
       </c>
@@ -26459,7 +26462,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>101</v>
       </c>
@@ -26485,7 +26488,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>79</v>
       </c>
@@ -26511,7 +26514,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="427" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>79</v>
       </c>
@@ -26537,7 +26540,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>79</v>
       </c>
@@ -26563,7 +26566,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="429" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>79</v>
       </c>
@@ -26589,7 +26592,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>92</v>
       </c>
@@ -26615,7 +26618,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>92</v>
       </c>
@@ -26641,7 +26644,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="432" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>92</v>
       </c>
@@ -26667,7 +26670,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="433" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>42</v>
       </c>
@@ -26693,7 +26696,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>42</v>
       </c>
@@ -26719,7 +26722,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>42</v>
       </c>
@@ -26745,7 +26748,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>42</v>
       </c>
@@ -26771,7 +26774,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>42</v>
       </c>
@@ -26797,7 +26800,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>32</v>
       </c>
@@ -26823,7 +26826,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="439" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>93</v>
       </c>
@@ -26849,7 +26852,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>93</v>
       </c>
@@ -26875,7 +26878,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="441" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>93</v>
       </c>
@@ -26901,7 +26904,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="442" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>85</v>
       </c>
@@ -26927,7 +26930,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>85</v>
       </c>
@@ -26953,7 +26956,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>85</v>
       </c>
@@ -26979,7 +26982,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="445" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>85</v>
       </c>
@@ -27005,7 +27008,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="446" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>89</v>
       </c>
@@ -27031,7 +27034,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="447" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>43</v>
       </c>
@@ -27057,7 +27060,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>43</v>
       </c>
@@ -27083,7 +27086,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="449" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>43</v>
       </c>
@@ -27109,7 +27112,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="450" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>43</v>
       </c>
@@ -27135,7 +27138,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="451" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>43</v>
       </c>
@@ -27161,7 +27164,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="452" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>43</v>
       </c>
@@ -27187,7 +27190,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="453" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>43</v>
       </c>
@@ -27213,7 +27216,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="454" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>43</v>
       </c>
@@ -27239,7 +27242,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="455" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>43</v>
       </c>
@@ -27265,7 +27268,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="456" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>43</v>
       </c>
@@ -27291,7 +27294,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="457" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>43</v>
       </c>
@@ -27317,7 +27320,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="458" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>59</v>
       </c>
@@ -27343,7 +27346,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="459" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>59</v>
       </c>
@@ -27369,7 +27372,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="460" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>99</v>
       </c>
@@ -27395,7 +27398,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="461" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>99</v>
       </c>
@@ -27421,7 +27424,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="462" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>95</v>
       </c>
@@ -27443,7 +27446,7 @@
       </c>
       <c r="H462" s="1"/>
     </row>
-    <row r="463" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>94</v>
       </c>
@@ -27467,7 +27470,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="464" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>94</v>
       </c>
@@ -27491,7 +27494,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="465" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>94</v>
       </c>
@@ -27515,7 +27518,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="466" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>94</v>
       </c>
@@ -27539,7 +27542,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="467" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>94</v>
       </c>
@@ -27563,7 +27566,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>94</v>
       </c>
@@ -27587,7 +27590,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="469" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>86</v>
       </c>
@@ -27613,7 +27616,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="470" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>87</v>
       </c>
@@ -27652,20 +27655,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F02391-4B01-4D5C-A7C9-130A0BC39704}">
   <dimension ref="A3:E521"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" customWidth="1"/>
-    <col min="5" max="5" width="26.6328125" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>155</v>
       </c>
@@ -27673,7 +27676,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>44</v>
       </c>
@@ -27687,7 +27690,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>123</v>
       </c>
@@ -27701,7 +27704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -27715,7 +27718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>114</v>
       </c>
@@ -27729,7 +27732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>119</v>
       </c>
@@ -27743,7 +27746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>115</v>
       </c>
@@ -27757,7 +27760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
@@ -27771,7 +27774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>124</v>
       </c>
@@ -27785,7 +27788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>128</v>
       </c>
@@ -27799,7 +27802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>127</v>
       </c>
@@ -27813,7 +27816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>65</v>
       </c>
@@ -27827,7 +27830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>127</v>
       </c>
@@ -27841,7 +27844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>132</v>
       </c>
@@ -27855,7 +27858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>139</v>
       </c>
@@ -27869,7 +27872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>142</v>
       </c>
@@ -27883,7 +27886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>143</v>
       </c>
@@ -27897,7 +27900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>149</v>
       </c>
@@ -27911,7 +27914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>150</v>
       </c>
@@ -27925,7 +27928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -27939,7 +27942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>118</v>
       </c>
@@ -27953,7 +27956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>120</v>
       </c>
@@ -27967,7 +27970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>146</v>
       </c>
@@ -27981,7 +27984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>143</v>
       </c>
@@ -27995,7 +27998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>81</v>
       </c>
@@ -28009,7 +28012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>136</v>
       </c>
@@ -28023,7 +28026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>143</v>
       </c>
@@ -28037,7 +28040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>66</v>
       </c>
@@ -28051,7 +28054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>127</v>
       </c>
@@ -28065,7 +28068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>26</v>
       </c>
@@ -28079,7 +28082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>119</v>
       </c>
@@ -28093,7 +28096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>116</v>
       </c>
@@ -28107,7 +28110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>120</v>
       </c>
@@ -28121,7 +28124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>125</v>
       </c>
@@ -28135,7 +28138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>124</v>
       </c>
@@ -28149,7 +28152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>128</v>
       </c>
@@ -28163,7 +28166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>83</v>
       </c>
@@ -28177,7 +28180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>138</v>
       </c>
@@ -28191,7 +28194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>134</v>
       </c>
@@ -28205,7 +28208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>139</v>
       </c>
@@ -28219,7 +28222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>145</v>
       </c>
@@ -28233,7 +28236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>141</v>
       </c>
@@ -28247,7 +28250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>147</v>
       </c>
@@ -28261,7 +28264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>143</v>
       </c>
@@ -28275,7 +28278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>144</v>
       </c>
@@ -28289,7 +28292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>33</v>
       </c>
@@ -28303,7 +28306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>115</v>
       </c>
@@ -28317,7 +28320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>132</v>
       </c>
@@ -28331,7 +28334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>90</v>
       </c>
@@ -28345,7 +28348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>146</v>
       </c>
@@ -28359,7 +28362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>141</v>
       </c>
@@ -28373,7 +28376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>47</v>
       </c>
@@ -28387,7 +28390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>124</v>
       </c>
@@ -28401,7 +28404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>132</v>
       </c>
@@ -28415,7 +28418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>136</v>
       </c>
@@ -28429,7 +28432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>100</v>
       </c>
@@ -28443,7 +28446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>149</v>
       </c>
@@ -28457,7 +28460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>152</v>
       </c>
@@ -28471,7 +28474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>11</v>
       </c>
@@ -28485,7 +28488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>115</v>
       </c>
@@ -28499,7 +28502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>63</v>
       </c>
@@ -28513,7 +28516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>131</v>
       </c>
@@ -28527,7 +28530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>145</v>
       </c>
@@ -28541,7 +28544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>141</v>
       </c>
@@ -28555,7 +28558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>147</v>
       </c>
@@ -28569,7 +28572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>142</v>
       </c>
@@ -28583,7 +28586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>3</v>
       </c>
@@ -28597,7 +28600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>119</v>
       </c>
@@ -28611,7 +28614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>116</v>
       </c>
@@ -28625,7 +28628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>140</v>
       </c>
@@ -28639,7 +28642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>149</v>
       </c>
@@ -28653,7 +28656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>12</v>
       </c>
@@ -28667,7 +28670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>119</v>
       </c>
@@ -28681,7 +28684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>115</v>
       </c>
@@ -28695,7 +28698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>116</v>
       </c>
@@ -28709,7 +28712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>117</v>
       </c>
@@ -28723,7 +28726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>128</v>
       </c>
@@ -28737,7 +28740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>135</v>
       </c>
@@ -28751,7 +28754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>145</v>
       </c>
@@ -28765,7 +28768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>142</v>
       </c>
@@ -28779,7 +28782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>57</v>
       </c>
@@ -28793,7 +28796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>124</v>
       </c>
@@ -28807,7 +28810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>133</v>
       </c>
@@ -28821,7 +28824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>14</v>
       </c>
@@ -28835,7 +28838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>114</v>
       </c>
@@ -28849,7 +28852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>128</v>
       </c>
@@ -28863,7 +28866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>134</v>
       </c>
@@ -28877,7 +28880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>58</v>
       </c>
@@ -28891,7 +28894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>124</v>
       </c>
@@ -28905,7 +28908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>133</v>
       </c>
@@ -28919,7 +28922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>15</v>
       </c>
@@ -28933,7 +28936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>114</v>
       </c>
@@ -28947,7 +28950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>120</v>
       </c>
@@ -28961,7 +28964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>128</v>
       </c>
@@ -28975,7 +28978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>133</v>
       </c>
@@ -28989,7 +28992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>147</v>
       </c>
@@ -29003,7 +29006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>16</v>
       </c>
@@ -29017,7 +29020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>114</v>
       </c>
@@ -29031,7 +29034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
         <v>128</v>
       </c>
@@ -29045,7 +29048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>134</v>
       </c>
@@ -29059,7 +29062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>41</v>
       </c>
@@ -29073,7 +29076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>120</v>
       </c>
@@ -29087,7 +29090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>124</v>
       </c>
@@ -29101,7 +29104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>133</v>
       </c>
@@ -29115,7 +29118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>91</v>
       </c>
@@ -29129,7 +29132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>134</v>
       </c>
@@ -29143,7 +29146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>96</v>
       </c>
@@ -29157,7 +29160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>134</v>
       </c>
@@ -29171,7 +29174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>142</v>
       </c>
@@ -29185,7 +29188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>152</v>
       </c>
@@ -29199,7 +29202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>70</v>
       </c>
@@ -29213,7 +29216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>131</v>
       </c>
@@ -29227,7 +29230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>134</v>
       </c>
@@ -29241,7 +29244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>142</v>
       </c>
@@ -29255,7 +29258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>144</v>
       </c>
@@ -29269,7 +29272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>97</v>
       </c>
@@ -29283,7 +29286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>146</v>
       </c>
@@ -29297,7 +29300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>143</v>
       </c>
@@ -29311,7 +29314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>54</v>
       </c>
@@ -29325,7 +29328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>126</v>
       </c>
@@ -29339,7 +29342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>136</v>
       </c>
@@ -29353,7 +29356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>37</v>
       </c>
@@ -29367,7 +29370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>116</v>
       </c>
@@ -29381,7 +29384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>125</v>
       </c>
@@ -29395,7 +29398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>128</v>
       </c>
@@ -29409,7 +29412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>141</v>
       </c>
@@ -29423,7 +29426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>4</v>
       </c>
@@ -29437,7 +29440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>116</v>
       </c>
@@ -29451,7 +29454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
         <v>140</v>
       </c>
@@ -29465,7 +29468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
         <v>142</v>
       </c>
@@ -29479,7 +29482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>103</v>
       </c>
@@ -29493,7 +29496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
         <v>144</v>
       </c>
@@ -29507,7 +29510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>50</v>
       </c>
@@ -29521,7 +29524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
         <v>117</v>
       </c>
@@ -29535,7 +29538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>88</v>
       </c>
@@ -29549,7 +29552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
         <v>145</v>
       </c>
@@ -29563,7 +29566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>38</v>
       </c>
@@ -29577,7 +29580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
         <v>116</v>
       </c>
@@ -29591,7 +29594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
         <v>125</v>
       </c>
@@ -29605,7 +29608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
         <v>124</v>
       </c>
@@ -29619,7 +29622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
         <v>128</v>
       </c>
@@ -29633,7 +29636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
         <v>138</v>
       </c>
@@ -29647,7 +29650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
         <v>145</v>
       </c>
@@ -29661,7 +29664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="8" t="s">
         <v>141</v>
       </c>
@@ -29675,7 +29678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
         <v>142</v>
       </c>
@@ -29689,7 +29692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
         <v>144</v>
       </c>
@@ -29703,7 +29706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>75</v>
       </c>
@@ -29717,7 +29720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
         <v>133</v>
       </c>
@@ -29731,7 +29734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>60</v>
       </c>
@@ -29745,7 +29748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
         <v>125</v>
       </c>
@@ -29759,7 +29762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>55</v>
       </c>
@@ -29773,7 +29776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
         <v>127</v>
       </c>
@@ -29787,7 +29790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
         <v>147</v>
       </c>
@@ -29801,7 +29804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
         <v>144</v>
       </c>
@@ -29815,7 +29818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>24</v>
       </c>
@@ -29829,7 +29832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
         <v>118</v>
       </c>
@@ -29843,7 +29846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
         <v>117</v>
       </c>
@@ -29857,7 +29860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
         <v>146</v>
       </c>
@@ -29871,7 +29874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>48</v>
       </c>
@@ -29885,7 +29888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
         <v>122</v>
       </c>
@@ -29899,7 +29902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
         <v>128</v>
       </c>
@@ -29913,7 +29916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="s">
         <v>132</v>
       </c>
@@ -29927,7 +29930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
         <v>136</v>
       </c>
@@ -29941,7 +29944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
         <v>134</v>
       </c>
@@ -29955,7 +29958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
         <v>150</v>
       </c>
@@ -29969,7 +29972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>10</v>
       </c>
@@ -29983,7 +29986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="8" t="s">
         <v>119</v>
       </c>
@@ -29997,7 +30000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="8" t="s">
         <v>115</v>
       </c>
@@ -30011,7 +30014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="8" t="s">
         <v>116</v>
       </c>
@@ -30025,7 +30028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="8" t="s">
         <v>125</v>
       </c>
@@ -30039,7 +30042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="8" t="s">
         <v>128</v>
       </c>
@@ -30053,7 +30056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="8" t="s">
         <v>127</v>
       </c>
@@ -30067,7 +30070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
         <v>130</v>
       </c>
@@ -30081,7 +30084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="8" t="s">
         <v>131</v>
       </c>
@@ -30095,7 +30098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="8" t="s">
         <v>133</v>
       </c>
@@ -30109,7 +30112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="8" t="s">
         <v>140</v>
       </c>
@@ -30123,7 +30126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>71</v>
       </c>
@@ -30137,7 +30140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="8" t="s">
         <v>131</v>
       </c>
@@ -30151,7 +30154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="8" t="s">
         <v>134</v>
       </c>
@@ -30165,7 +30168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="8" t="s">
         <v>147</v>
       </c>
@@ -30179,7 +30182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="8" t="s">
         <v>149</v>
       </c>
@@ -30193,7 +30196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>76</v>
       </c>
@@ -30207,7 +30210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="8" t="s">
         <v>133</v>
       </c>
@@ -30221,7 +30224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>19</v>
       </c>
@@ -30235,7 +30238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
         <v>119</v>
       </c>
@@ -30249,7 +30252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="8" t="s">
         <v>117</v>
       </c>
@@ -30263,7 +30266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="8" t="s">
         <v>122</v>
       </c>
@@ -30277,7 +30280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="s">
         <v>133</v>
       </c>
@@ -30291,7 +30294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="8" t="s">
         <v>138</v>
       </c>
@@ -30305,7 +30308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>56</v>
       </c>
@@ -30319,7 +30322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="8" t="s">
         <v>128</v>
       </c>
@@ -30333,7 +30336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="8" t="s">
         <v>146</v>
       </c>
@@ -30347,7 +30350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="8" t="s">
         <v>143</v>
       </c>
@@ -30361,7 +30364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>30</v>
       </c>
@@ -30375,7 +30378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="8" t="s">
         <v>122</v>
       </c>
@@ -30389,7 +30392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="8" t="s">
         <v>125</v>
       </c>
@@ -30403,7 +30406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>64</v>
       </c>
@@ -30417,7 +30420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="8" t="s">
         <v>129</v>
       </c>
@@ -30431,7 +30434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="8" t="s">
         <v>147</v>
       </c>
@@ -30445,7 +30448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>61</v>
       </c>
@@ -30459,7 +30462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="8" t="s">
         <v>124</v>
       </c>
@@ -30473,7 +30476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="8" t="s">
         <v>144</v>
       </c>
@@ -30487,7 +30490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>51</v>
       </c>
@@ -30501,7 +30504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="8" t="s">
         <v>117</v>
       </c>
@@ -30515,7 +30518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="8" t="s">
         <v>122</v>
       </c>
@@ -30529,7 +30532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="8" t="s">
         <v>148</v>
       </c>
@@ -30543,7 +30546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>102</v>
       </c>
@@ -30557,7 +30560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="8" t="s">
         <v>148</v>
       </c>
@@ -30571,7 +30574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="8" t="s">
         <v>150</v>
       </c>
@@ -30585,7 +30588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
         <v>34</v>
       </c>
@@ -30599,7 +30602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="8" t="s">
         <v>115</v>
       </c>
@@ -30613,7 +30616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="8" t="s">
         <v>116</v>
       </c>
@@ -30627,7 +30630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="8" t="s">
         <v>122</v>
       </c>
@@ -30641,7 +30644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="8" t="s">
         <v>131</v>
       </c>
@@ -30655,7 +30658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="8" t="s">
         <v>132</v>
       </c>
@@ -30669,7 +30672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="8" t="s">
         <v>134</v>
       </c>
@@ -30683,7 +30686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="8" t="s">
         <v>140</v>
       </c>
@@ -30697,7 +30700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>72</v>
       </c>
@@ -30711,7 +30714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="8" t="s">
         <v>131</v>
       </c>
@@ -30725,7 +30728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="8" t="s">
         <v>134</v>
       </c>
@@ -30739,7 +30742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="8" t="s">
         <v>147</v>
       </c>
@@ -30753,7 +30756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="8" t="s">
         <v>152</v>
       </c>
@@ -30767,7 +30770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>28</v>
       </c>
@@ -30781,7 +30784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="8" t="s">
         <v>119</v>
       </c>
@@ -30795,7 +30798,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="8" t="s">
         <v>116</v>
       </c>
@@ -30809,7 +30812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="8" t="s">
         <v>121</v>
       </c>
@@ -30823,7 +30826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="8" t="s">
         <v>125</v>
       </c>
@@ -30837,7 +30840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="8" t="s">
         <v>131</v>
       </c>
@@ -30851,7 +30854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="8" t="s">
         <v>138</v>
       </c>
@@ -30865,7 +30868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="8" t="s">
         <v>134</v>
       </c>
@@ -30879,7 +30882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="8" t="s">
         <v>146</v>
       </c>
@@ -30893,7 +30896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
         <v>139</v>
       </c>
@@ -30907,7 +30910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="8" t="s">
         <v>145</v>
       </c>
@@ -30921,7 +30924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="8" t="s">
         <v>140</v>
       </c>
@@ -30935,7 +30938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="8" t="s">
         <v>141</v>
       </c>
@@ -30949,7 +30952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="8" t="s">
         <v>147</v>
       </c>
@@ -30963,7 +30966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="8" t="s">
         <v>142</v>
       </c>
@@ -30977,7 +30980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="8" t="s">
         <v>144</v>
       </c>
@@ -30991,7 +30994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="8" t="s">
         <v>151</v>
       </c>
@@ -31005,7 +31008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>69</v>
       </c>
@@ -31019,7 +31022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="8" t="s">
         <v>134</v>
       </c>
@@ -31033,7 +31036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="8" t="s">
         <v>141</v>
       </c>
@@ -31047,7 +31050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
         <v>21</v>
       </c>
@@ -31061,7 +31064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="8" t="s">
         <v>119</v>
       </c>
@@ -31075,7 +31078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="8" t="s">
         <v>118</v>
       </c>
@@ -31089,7 +31092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="8" t="s">
         <v>135</v>
       </c>
@@ -31103,7 +31106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="8" t="s">
         <v>149</v>
       </c>
@@ -31117,7 +31120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="8" t="s">
         <v>152</v>
       </c>
@@ -31131,7 +31134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
         <v>84</v>
       </c>
@@ -31145,7 +31148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="8" t="s">
         <v>145</v>
       </c>
@@ -31159,7 +31162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="8" t="s">
         <v>147</v>
       </c>
@@ -31173,7 +31176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="8" t="s">
         <v>143</v>
       </c>
@@ -31187,7 +31190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="8" t="s">
         <v>144</v>
       </c>
@@ -31201,7 +31204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>6</v>
       </c>
@@ -31215,7 +31218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="8" t="s">
         <v>114</v>
       </c>
@@ -31229,7 +31232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="8" t="s">
         <v>119</v>
       </c>
@@ -31243,7 +31246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="8" t="s">
         <v>120</v>
       </c>
@@ -31257,7 +31260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="8" t="s">
         <v>137</v>
       </c>
@@ -31271,7 +31274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="8" t="s">
         <v>135</v>
       </c>
@@ -31285,7 +31288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="8" t="s">
         <v>140</v>
       </c>
@@ -31299,7 +31302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="8" t="s">
         <v>149</v>
       </c>
@@ -31313,7 +31316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
         <v>20</v>
       </c>
@@ -31327,7 +31330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="8" t="s">
         <v>114</v>
       </c>
@@ -31341,7 +31344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="8" t="s">
         <v>120</v>
       </c>
@@ -31355,7 +31358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="8" t="s">
         <v>133</v>
       </c>
@@ -31369,7 +31372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>77</v>
       </c>
@@ -31383,7 +31386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="8" t="s">
         <v>133</v>
       </c>
@@ -31397,7 +31400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>39</v>
       </c>
@@ -31411,7 +31414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="8" t="s">
         <v>116</v>
       </c>
@@ -31425,7 +31428,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="8" t="s">
         <v>123</v>
       </c>
@@ -31439,7 +31442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="8" t="s">
         <v>125</v>
       </c>
@@ -31453,7 +31456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="8" t="s">
         <v>124</v>
       </c>
@@ -31467,7 +31470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="8" t="s">
         <v>128</v>
       </c>
@@ -31481,7 +31484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="8" t="s">
         <v>133</v>
       </c>
@@ -31495,7 +31498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="8" t="s">
         <v>134</v>
       </c>
@@ -31509,7 +31512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="8" t="s">
         <v>142</v>
       </c>
@@ -31523,7 +31526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="8" t="s">
         <v>143</v>
       </c>
@@ -31537,7 +31540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="8" t="s">
         <v>144</v>
       </c>
@@ -31551,7 +31554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="8" t="s">
         <v>149</v>
       </c>
@@ -31565,7 +31568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="8" t="s">
         <v>150</v>
       </c>
@@ -31579,7 +31582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>17</v>
       </c>
@@ -31593,7 +31596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="8" t="s">
         <v>114</v>
       </c>
@@ -31607,7 +31610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="8" t="s">
         <v>122</v>
       </c>
@@ -31621,7 +31624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="8" t="s">
         <v>124</v>
       </c>
@@ -31635,7 +31638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="8" t="s">
         <v>128</v>
       </c>
@@ -31649,7 +31652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="8" t="s">
         <v>127</v>
       </c>
@@ -31663,7 +31666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="8" t="s">
         <v>135</v>
       </c>
@@ -31677,7 +31680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="8" t="s">
         <v>134</v>
       </c>
@@ -31691,7 +31694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="8" t="s">
         <v>146</v>
       </c>
@@ -31705,7 +31708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
         <v>35</v>
       </c>
@@ -31719,7 +31722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="8" t="s">
         <v>117</v>
       </c>
@@ -31733,7 +31736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="8" t="s">
         <v>134</v>
       </c>
@@ -31747,7 +31750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="8" t="s">
         <v>139</v>
       </c>
@@ -31761,7 +31764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="8" t="s">
         <v>145</v>
       </c>
@@ -31775,7 +31778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
         <v>40</v>
       </c>
@@ -31789,7 +31792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="8" t="s">
         <v>116</v>
       </c>
@@ -31803,7 +31806,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="8" t="s">
         <v>123</v>
       </c>
@@ -31817,7 +31820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="8" t="s">
         <v>125</v>
       </c>
@@ -31831,7 +31834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="8" t="s">
         <v>124</v>
       </c>
@@ -31845,7 +31848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="8" t="s">
         <v>128</v>
       </c>
@@ -31859,7 +31862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="8" t="s">
         <v>133</v>
       </c>
@@ -31873,7 +31876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="8" t="s">
         <v>134</v>
       </c>
@@ -31887,7 +31890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="8" t="s">
         <v>145</v>
       </c>
@@ -31901,7 +31904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="8" t="s">
         <v>142</v>
       </c>
@@ -31915,7 +31918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="8" t="s">
         <v>143</v>
       </c>
@@ -31929,7 +31932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="8" t="s">
         <v>144</v>
       </c>
@@ -31943,7 +31946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="8" t="s">
         <v>150</v>
       </c>
@@ -31957,7 +31960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
         <v>18</v>
       </c>
@@ -31971,7 +31974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="8" t="s">
         <v>114</v>
       </c>
@@ -31985,7 +31988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="8" t="s">
         <v>122</v>
       </c>
@@ -31999,7 +32002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="8" t="s">
         <v>124</v>
       </c>
@@ -32013,7 +32016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="8" t="s">
         <v>128</v>
       </c>
@@ -32027,7 +32030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="8" t="s">
         <v>127</v>
       </c>
@@ -32041,7 +32044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="8" t="s">
         <v>135</v>
       </c>
@@ -32055,7 +32058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="8" t="s">
         <v>138</v>
       </c>
@@ -32069,7 +32072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="8" t="s">
         <v>134</v>
       </c>
@@ -32083,7 +32086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
         <v>104</v>
       </c>
@@ -32097,7 +32100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="8" t="s">
         <v>150</v>
       </c>
@@ -32111,7 +32114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
         <v>9</v>
       </c>
@@ -32125,7 +32128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="8" t="s">
         <v>119</v>
       </c>
@@ -32139,7 +32142,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="8" t="s">
         <v>115</v>
       </c>
@@ -32153,7 +32156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="8" t="s">
         <v>124</v>
       </c>
@@ -32167,7 +32170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="8" t="s">
         <v>127</v>
       </c>
@@ -32181,7 +32184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="8" t="s">
         <v>129</v>
       </c>
@@ -32195,7 +32198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="8" t="s">
         <v>131</v>
       </c>
@@ -32209,7 +32212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="8" t="s">
         <v>132</v>
       </c>
@@ -32223,7 +32226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="8" t="s">
         <v>134</v>
       </c>
@@ -32237,7 +32240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="8" t="s">
         <v>139</v>
       </c>
@@ -32251,7 +32254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="8" t="s">
         <v>147</v>
       </c>
@@ -32265,7 +32268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="6" t="s">
         <v>68</v>
       </c>
@@ -32279,7 +32282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="8" t="s">
         <v>127</v>
       </c>
@@ -32293,7 +32296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="6" t="s">
         <v>67</v>
       </c>
@@ -32307,7 +32310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="8" t="s">
         <v>127</v>
       </c>
@@ -32321,7 +32324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="8" t="s">
         <v>134</v>
       </c>
@@ -32335,7 +32338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="6" t="s">
         <v>45</v>
       </c>
@@ -32349,7 +32352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="8" t="s">
         <v>122</v>
       </c>
@@ -32363,7 +32366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="6" t="s">
         <v>27</v>
       </c>
@@ -32377,7 +32380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="8" t="s">
         <v>119</v>
       </c>
@@ -32391,7 +32394,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="8" t="s">
         <v>116</v>
       </c>
@@ -32405,7 +32408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="8" t="s">
         <v>125</v>
       </c>
@@ -32419,7 +32422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="8" t="s">
         <v>124</v>
       </c>
@@ -32433,7 +32436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="8" t="s">
         <v>128</v>
       </c>
@@ -32447,7 +32450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="8" t="s">
         <v>145</v>
       </c>
@@ -32461,7 +32464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="8" t="s">
         <v>141</v>
       </c>
@@ -32475,7 +32478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="8" t="s">
         <v>147</v>
       </c>
@@ -32489,7 +32492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="8" t="s">
         <v>143</v>
       </c>
@@ -32503,7 +32506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="8" t="s">
         <v>144</v>
       </c>
@@ -32517,7 +32520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="8" t="s">
         <v>149</v>
       </c>
@@ -32531,7 +32534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="6" t="s">
         <v>73</v>
       </c>
@@ -32545,7 +32548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="8" t="s">
         <v>130</v>
       </c>
@@ -32559,7 +32562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="8" t="s">
         <v>139</v>
       </c>
@@ -32573,7 +32576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="8" t="s">
         <v>145</v>
       </c>
@@ -32587,7 +32590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="8" t="s">
         <v>147</v>
       </c>
@@ -32601,7 +32604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="8" t="s">
         <v>142</v>
       </c>
@@ -32615,7 +32618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="6" t="s">
         <v>1</v>
       </c>
@@ -32629,7 +32632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="8" t="s">
         <v>114</v>
       </c>
@@ -32643,7 +32646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="8" t="s">
         <v>115</v>
       </c>
@@ -32657,7 +32660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="8" t="s">
         <v>118</v>
       </c>
@@ -32671,7 +32674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="8" t="s">
         <v>136</v>
       </c>
@@ -32685,7 +32688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="8" t="s">
         <v>141</v>
       </c>
@@ -32699,7 +32702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="6" t="s">
         <v>82</v>
       </c>
@@ -32713,7 +32716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="8" t="s">
         <v>136</v>
       </c>
@@ -32727,7 +32730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="8" t="s">
         <v>153</v>
       </c>
@@ -32741,7 +32744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="6" t="s">
         <v>29</v>
       </c>
@@ -32755,7 +32758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="8" t="s">
         <v>117</v>
       </c>
@@ -32769,7 +32772,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="8" t="s">
         <v>124</v>
       </c>
@@ -32783,7 +32786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="8" t="s">
         <v>128</v>
       </c>
@@ -32797,7 +32800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="8" t="s">
         <v>133</v>
       </c>
@@ -32811,7 +32814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="8" t="s">
         <v>135</v>
       </c>
@@ -32825,7 +32828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="8" t="s">
         <v>138</v>
       </c>
@@ -32839,7 +32842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="8" t="s">
         <v>134</v>
       </c>
@@ -32853,7 +32856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="8" t="s">
         <v>149</v>
       </c>
@@ -32867,7 +32870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="8" t="s">
         <v>150</v>
       </c>
@@ -32881,7 +32884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="6" t="s">
         <v>5</v>
       </c>
@@ -32895,7 +32898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="8" t="s">
         <v>119</v>
       </c>
@@ -32909,7 +32912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="8" t="s">
         <v>115</v>
       </c>
@@ -32923,7 +32926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="8" t="s">
         <v>116</v>
       </c>
@@ -32937,7 +32940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="8" t="s">
         <v>125</v>
       </c>
@@ -32951,7 +32954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="8" t="s">
         <v>140</v>
       </c>
@@ -32965,7 +32968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="8" t="s">
         <v>142</v>
       </c>
@@ -32979,7 +32982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="8" t="s">
         <v>149</v>
       </c>
@@ -32993,7 +32996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="6" t="s">
         <v>23</v>
       </c>
@@ -33007,7 +33010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="8" t="s">
         <v>115</v>
       </c>
@@ -33021,7 +33024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="6" t="s">
         <v>74</v>
       </c>
@@ -33035,7 +33038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="8" t="s">
         <v>137</v>
       </c>
@@ -33049,7 +33052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="8" t="s">
         <v>136</v>
       </c>
@@ -33063,7 +33066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="8" t="s">
         <v>152</v>
       </c>
@@ -33077,7 +33080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="6" t="s">
         <v>98</v>
       </c>
@@ -33091,7 +33094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="8" t="s">
         <v>140</v>
       </c>
@@ -33105,7 +33108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="8" t="s">
         <v>144</v>
       </c>
@@ -33119,7 +33122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="6" t="s">
         <v>2</v>
       </c>
@@ -33133,7 +33136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="8" t="s">
         <v>115</v>
       </c>
@@ -33147,7 +33150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="8" t="s">
         <v>124</v>
       </c>
@@ -33161,7 +33164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="8" t="s">
         <v>129</v>
       </c>
@@ -33175,7 +33178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="8" t="s">
         <v>135</v>
       </c>
@@ -33189,7 +33192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="8" t="s">
         <v>134</v>
       </c>
@@ -33203,7 +33206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="8" t="s">
         <v>140</v>
       </c>
@@ -33217,7 +33220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="8" t="s">
         <v>141</v>
       </c>
@@ -33231,7 +33234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="8" t="s">
         <v>147</v>
       </c>
@@ -33245,7 +33248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="8" t="s">
         <v>153</v>
       </c>
@@ -33259,7 +33262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="6" t="s">
         <v>80</v>
       </c>
@@ -33273,7 +33276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="8" t="s">
         <v>131</v>
       </c>
@@ -33287,7 +33290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="8" t="s">
         <v>134</v>
       </c>
@@ -33301,7 +33304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="8" t="s">
         <v>142</v>
       </c>
@@ -33315,7 +33318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="8" t="s">
         <v>153</v>
       </c>
@@ -33329,7 +33332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="6" t="s">
         <v>78</v>
       </c>
@@ -33343,7 +33346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="8" t="s">
         <v>136</v>
       </c>
@@ -33357,7 +33360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="8" t="s">
         <v>149</v>
       </c>
@@ -33371,7 +33374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="8" t="s">
         <v>152</v>
       </c>
@@ -33385,7 +33388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="6" t="s">
         <v>36</v>
       </c>
@@ -33399,7 +33402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="8" t="s">
         <v>115</v>
       </c>
@@ -33413,7 +33416,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="8" t="s">
         <v>116</v>
       </c>
@@ -33427,7 +33430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="8" t="s">
         <v>120</v>
       </c>
@@ -33441,7 +33444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="8" t="s">
         <v>130</v>
       </c>
@@ -33455,7 +33458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="8" t="s">
         <v>131</v>
       </c>
@@ -33469,7 +33472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="8" t="s">
         <v>132</v>
       </c>
@@ -33483,7 +33486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="8" t="s">
         <v>134</v>
       </c>
@@ -33497,7 +33500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="8" t="s">
         <v>139</v>
       </c>
@@ -33511,7 +33514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="8" t="s">
         <v>145</v>
       </c>
@@ -33525,7 +33528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="8" t="s">
         <v>143</v>
       </c>
@@ -33539,7 +33542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="6" t="s">
         <v>62</v>
       </c>
@@ -33553,7 +33556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="8" t="s">
         <v>124</v>
       </c>
@@ -33567,7 +33570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="6" t="s">
         <v>7</v>
       </c>
@@ -33581,7 +33584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="8" t="s">
         <v>117</v>
       </c>
@@ -33595,7 +33598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="8" t="s">
         <v>142</v>
       </c>
@@ -33609,7 +33612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="6" t="s">
         <v>46</v>
       </c>
@@ -33623,7 +33626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="8" t="s">
         <v>120</v>
       </c>
@@ -33637,7 +33640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="6" t="s">
         <v>31</v>
       </c>
@@ -33651,7 +33654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="8" t="s">
         <v>117</v>
       </c>
@@ -33665,7 +33668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="8" t="s">
         <v>123</v>
       </c>
@@ -33679,7 +33682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="6" t="s">
         <v>13</v>
       </c>
@@ -33693,7 +33696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="8" t="s">
         <v>116</v>
       </c>
@@ -33707,7 +33710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="8" t="s">
         <v>129</v>
       </c>
@@ -33721,7 +33724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="8" t="s">
         <v>130</v>
       </c>
@@ -33735,7 +33738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="8" t="s">
         <v>146</v>
       </c>
@@ -33749,7 +33752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="8" t="s">
         <v>143</v>
       </c>
@@ -33763,7 +33766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="6" t="s">
         <v>25</v>
       </c>
@@ -33777,7 +33780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="8" t="s">
         <v>119</v>
       </c>
@@ -33791,7 +33794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="8" t="s">
         <v>145</v>
       </c>
@@ -33805,7 +33808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="8" t="s">
         <v>149</v>
       </c>
@@ -33819,7 +33822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="6" t="s">
         <v>52</v>
       </c>
@@ -33833,7 +33836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="8" t="s">
         <v>117</v>
       </c>
@@ -33847,7 +33850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="8" t="s">
         <v>121</v>
       </c>
@@ -33861,7 +33864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="8" t="s">
         <v>122</v>
       </c>
@@ -33875,7 +33878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="8" t="s">
         <v>124</v>
       </c>
@@ -33889,7 +33892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="8" t="s">
         <v>126</v>
       </c>
@@ -33903,7 +33906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="8" t="s">
         <v>135</v>
       </c>
@@ -33917,7 +33920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="8" t="s">
         <v>148</v>
       </c>
@@ -33931,7 +33934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="8" t="s">
         <v>144</v>
       </c>
@@ -33945,7 +33948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="6" t="s">
         <v>49</v>
       </c>
@@ -33959,7 +33962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="8" t="s">
         <v>118</v>
       </c>
@@ -33973,7 +33976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="8" t="s">
         <v>134</v>
       </c>
@@ -33987,7 +33990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="8" t="s">
         <v>141</v>
       </c>
@@ -34001,7 +34004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="8" t="s">
         <v>148</v>
       </c>
@@ -34015,7 +34018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="8" t="s">
         <v>150</v>
       </c>
@@ -34029,7 +34032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="8" t="s">
         <v>151</v>
       </c>
@@ -34043,7 +34046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="8" t="s">
         <v>154</v>
       </c>
@@ -34057,7 +34060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="6" t="s">
         <v>53</v>
       </c>
@@ -34071,7 +34074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="8" t="s">
         <v>123</v>
       </c>
@@ -34085,7 +34088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="8" t="s">
         <v>130</v>
       </c>
@@ -34099,7 +34102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="8" t="s">
         <v>146</v>
       </c>
@@ -34113,7 +34116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="8" t="s">
         <v>139</v>
       </c>
@@ -34127,7 +34130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="8" t="s">
         <v>143</v>
       </c>
@@ -34141,7 +34144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="6" t="s">
         <v>101</v>
       </c>
@@ -34155,7 +34158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="8" t="s">
         <v>149</v>
       </c>
@@ -34169,7 +34172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="6" t="s">
         <v>79</v>
       </c>
@@ -34183,7 +34186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="8" t="s">
         <v>132</v>
       </c>
@@ -34197,7 +34200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="8" t="s">
         <v>134</v>
       </c>
@@ -34211,7 +34214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="8" t="s">
         <v>145</v>
       </c>
@@ -34225,7 +34228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="8" t="s">
         <v>141</v>
       </c>
@@ -34239,7 +34242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="6" t="s">
         <v>92</v>
       </c>
@@ -34253,7 +34256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="8" t="s">
         <v>141</v>
       </c>
@@ -34267,7 +34270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="8" t="s">
         <v>148</v>
       </c>
@@ -34281,7 +34284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="8" t="s">
         <v>151</v>
       </c>
@@ -34295,7 +34298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="6" t="s">
         <v>42</v>
       </c>
@@ -34309,7 +34312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="8" t="s">
         <v>116</v>
       </c>
@@ -34323,7 +34326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="8" t="s">
         <v>121</v>
       </c>
@@ -34337,7 +34340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" s="8" t="s">
         <v>132</v>
       </c>
@@ -34351,7 +34354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="8" t="s">
         <v>134</v>
       </c>
@@ -34365,7 +34368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="8" t="s">
         <v>139</v>
       </c>
@@ -34379,7 +34382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="6" t="s">
         <v>32</v>
       </c>
@@ -34393,7 +34396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="8" t="s">
         <v>116</v>
       </c>
@@ -34407,7 +34410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="6" t="s">
         <v>93</v>
       </c>
@@ -34421,7 +34424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="8" t="s">
         <v>139</v>
       </c>
@@ -34435,7 +34438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="8" t="s">
         <v>149</v>
       </c>
@@ -34449,7 +34452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="8" t="s">
         <v>152</v>
       </c>
@@ -34463,7 +34466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" s="6" t="s">
         <v>85</v>
       </c>
@@ -34477,7 +34480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" s="8" t="s">
         <v>145</v>
       </c>
@@ -34491,7 +34494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="8" t="s">
         <v>147</v>
       </c>
@@ -34505,7 +34508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" s="8" t="s">
         <v>142</v>
       </c>
@@ -34519,7 +34522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="8" t="s">
         <v>153</v>
       </c>
@@ -34533,7 +34536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="6" t="s">
         <v>89</v>
       </c>
@@ -34547,7 +34550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="8" t="s">
         <v>135</v>
       </c>
@@ -34561,7 +34564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" s="6" t="s">
         <v>43</v>
       </c>
@@ -34575,7 +34578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" s="8" t="s">
         <v>118</v>
       </c>
@@ -34589,7 +34592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" s="8" t="s">
         <v>138</v>
       </c>
@@ -34603,7 +34606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" s="8" t="s">
         <v>134</v>
       </c>
@@ -34617,7 +34620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" s="8" t="s">
         <v>145</v>
       </c>
@@ -34631,7 +34634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" s="8" t="s">
         <v>141</v>
       </c>
@@ -34645,7 +34648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" s="8" t="s">
         <v>147</v>
       </c>
@@ -34659,7 +34662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" s="6" t="s">
         <v>59</v>
       </c>
@@ -34673,7 +34676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" s="8" t="s">
         <v>122</v>
       </c>
@@ -34687,7 +34690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" s="8" t="s">
         <v>148</v>
       </c>
@@ -34701,7 +34704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" s="6" t="s">
         <v>99</v>
       </c>
@@ -34715,7 +34718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" s="8" t="s">
         <v>140</v>
       </c>
@@ -34729,7 +34732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" s="8" t="s">
         <v>148</v>
       </c>
@@ -34743,7 +34746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" s="6" t="s">
         <v>95</v>
       </c>
@@ -34757,7 +34760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" s="8" t="s">
         <v>134</v>
       </c>
@@ -34771,7 +34774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" s="6" t="s">
         <v>94</v>
       </c>
@@ -34785,7 +34788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" s="8" t="s">
         <v>138</v>
       </c>
@@ -34799,7 +34802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" s="8" t="s">
         <v>139</v>
       </c>
@@ -34813,7 +34816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" s="8" t="s">
         <v>145</v>
       </c>
@@ -34827,7 +34830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" s="8" t="s">
         <v>141</v>
       </c>
@@ -34841,7 +34844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" s="8" t="s">
         <v>147</v>
       </c>
@@ -34855,7 +34858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" s="6" t="s">
         <v>86</v>
       </c>
@@ -34869,7 +34872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" s="8" t="s">
         <v>144</v>
       </c>
@@ -34883,7 +34886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" s="6" t="s">
         <v>87</v>
       </c>
@@ -34897,7 +34900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" s="8" t="s">
         <v>144</v>
       </c>
@@ -34911,7 +34914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" s="6" t="s">
         <v>156</v>
       </c>
